--- a/Data/testdata.xlsx
+++ b/Data/testdata.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="PO" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="PO" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>TC_ID</t>
   </si>
@@ -224,6 +225,27 @@
   </si>
   <si>
     <t>72500</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Chetna</t>
+  </si>
+  <si>
+    <t>Mouli</t>
+  </si>
+  <si>
+    <t>Nooru</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Valli</t>
   </si>
 </sst>
 </file>
@@ -679,6 +701,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -878,11 +950,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
